--- a/data/evaluation/evaluation_Center_Winter_Cucumbers.xlsx
+++ b/data/evaluation/evaluation_Center_Winter_Cucumbers.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238.1101555482862</v>
+        <v>235.890619343766</v>
       </c>
       <c r="C4" t="n">
-        <v>95830.15942937395</v>
+        <v>94624.41871332801</v>
       </c>
       <c r="D4" t="n">
-        <v>309.564467323648</v>
+        <v>307.6108234658332</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6689835927629282</v>
+        <v>-0.6479843427962202</v>
       </c>
     </row>
     <row r="5">
